--- a/data/trans_dic/P73-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P73-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,28; 67,65</t>
+          <t>55,5; 67,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,7; 71,49</t>
+          <t>60,06; 71,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,94; 64,18</t>
+          <t>52,08; 64,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,94; 67,82</t>
+          <t>56,47; 68,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,63; 64,12</t>
+          <t>55,95; 64,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,99; 68,2</t>
+          <t>59,73; 67,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,38; 70,01</t>
+          <t>60,6; 69,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,77; 71,25</t>
+          <t>63,0; 71,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,67; 68,49</t>
+          <t>60,14; 68,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,09; 68,44</t>
+          <t>59,82; 68,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,66; 71,07</t>
+          <t>62,79; 71,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,64; 67,9</t>
+          <t>59,52; 68,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,93; 68,15</t>
+          <t>62,28; 68,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,96; 70,04</t>
+          <t>63,87; 70,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61,13; 67,29</t>
+          <t>60,92; 67,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,51; 73,94</t>
+          <t>63,09; 73,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,32; 67,32</t>
+          <t>55,99; 66,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,33; 72,87</t>
+          <t>63,3; 72,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,96; 67,16</t>
+          <t>56,85; 67,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,96; 66,62</t>
+          <t>56,3; 66,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,33; 63,83</t>
+          <t>52,66; 63,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,56; 69,07</t>
+          <t>61,63; 69,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,83; 65,29</t>
+          <t>57,62; 65,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>59,58; 66,87</t>
+          <t>59,21; 66,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,19; 70,68</t>
+          <t>61,52; 71,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,97; 68,84</t>
+          <t>61,57; 69,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,77; 73,54</t>
+          <t>63,69; 73,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,47; 64,41</t>
+          <t>54,43; 63,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,0; 71,36</t>
+          <t>63,83; 71,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,91; 69,36</t>
+          <t>59,18; 69,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,38; 66,29</t>
+          <t>58,91; 65,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,84; 69,11</t>
+          <t>64,08; 69,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63,12; 70,09</t>
+          <t>62,85; 69,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53,42; 67,88</t>
+          <t>53,68; 67,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,53; 71,09</t>
+          <t>56,38; 70,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,39; 66,87</t>
+          <t>54,96; 67,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,3; 72,67</t>
+          <t>58,95; 71,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,38; 70,91</t>
+          <t>57,81; 70,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,72; 75,21</t>
+          <t>62,72; 75,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,78; 67,99</t>
+          <t>58,75; 68,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,42; 68,91</t>
+          <t>60,12; 69,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,76; 69,59</t>
+          <t>60,74; 69,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,02; 71,02</t>
+          <t>60,07; 71,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,57; 71,68</t>
+          <t>59,37; 70,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,57; 68,09</t>
+          <t>56,28; 68,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,94; 67,82</t>
+          <t>55,97; 68,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,77; 69,38</t>
+          <t>58,11; 69,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,99; 67,25</t>
+          <t>55,41; 67,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,46; 68,33</t>
+          <t>59,94; 68,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,5; 68,55</t>
+          <t>60,24; 68,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57,91; 65,97</t>
+          <t>58,04; 66,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,25; 71,96</t>
+          <t>64,35; 71,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,17; 69,41</t>
+          <t>61,64; 69,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,0; 63,45</t>
+          <t>55,97; 63,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,38; 66,8</t>
+          <t>59,51; 67,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,32; 68,08</t>
+          <t>60,6; 67,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,22; 55,08</t>
+          <t>46,81; 54,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63,11; 68,61</t>
+          <t>63,07; 68,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,5; 67,64</t>
+          <t>62,26; 67,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,33; 57,89</t>
+          <t>52,6; 58,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>60,03; 66,89</t>
+          <t>59,41; 66,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59,88; 67,11</t>
+          <t>60,28; 67,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,48; 65,53</t>
+          <t>58,44; 65,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,12; 65,9</t>
+          <t>59,69; 66,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,17; 66,58</t>
+          <t>60,24; 66,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,73; 64,81</t>
+          <t>58,01; 64,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,78; 65,81</t>
+          <t>60,55; 65,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>61,08; 65,63</t>
+          <t>61,24; 66,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>59,1; 63,94</t>
+          <t>59,25; 64,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,83; 67,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,38; 66,75</t>
+          <t>63,36; 66,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,16</t>
+          <t>61,88; 65,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>61,02; 64,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,06; 66,49</t>
+          <t>63,21; 66,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>58,8; 62,05</t>
+          <t>58,62; 62,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,81; 65,14</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63,74; 66,11</t>
+          <t>63,68; 66,19</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,01</t>
+          <t>60,7; 63,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P73-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,5; 67,7</t>
+          <t>56,01; 67,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,06; 71,36</t>
+          <t>59,75; 71,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,08; 64,59</t>
+          <t>51,17; 64,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,47; 68,44</t>
+          <t>56,53; 68,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,95; 64,9</t>
+          <t>55,76; 64,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,73; 67,92</t>
+          <t>59,86; 68,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>60,6; 69,93</t>
+          <t>61,41; 70,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,0; 71,35</t>
+          <t>63,02; 71,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,14; 68,4</t>
+          <t>59,87; 68,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,82; 68,32</t>
+          <t>59,84; 68,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,79; 71,4</t>
+          <t>62,59; 71,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,52; 68,32</t>
+          <t>59,65; 68,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,28; 68,22</t>
+          <t>61,9; 68,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,87; 70,01</t>
+          <t>63,84; 70,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,92; 67,1</t>
+          <t>61,19; 67,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,09; 73,7</t>
+          <t>63,04; 73,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,99; 66,97</t>
+          <t>56,03; 67,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,3; 72,88</t>
+          <t>63,33; 73,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,85; 67,24</t>
+          <t>57,23; 67,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,3; 66,73</t>
+          <t>56,1; 67,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,66; 63,21</t>
+          <t>53,04; 64,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,63; 69,36</t>
+          <t>61,54; 69,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,62; 65,37</t>
+          <t>57,79; 65,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>59,21; 66,76</t>
+          <t>59,69; 67,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,52; 71,33</t>
+          <t>61,31; 70,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,57; 69,11</t>
+          <t>61,43; 68,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,69; 73,56</t>
+          <t>63,63; 73,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,43; 63,88</t>
+          <t>54,52; 64,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,83; 71,23</t>
+          <t>64,25; 71,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,18; 69,14</t>
+          <t>59,09; 69,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,91; 65,98</t>
+          <t>59,5; 66,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,08; 69,4</t>
+          <t>63,34; 68,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,95</t>
+          <t>62,94; 70,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53,68; 67,46</t>
+          <t>53,32; 67,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,38; 70,71</t>
+          <t>56,61; 71,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,96; 67,98</t>
+          <t>53,95; 67,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,95; 71,94</t>
+          <t>59,3; 72,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,81; 70,72</t>
+          <t>57,97; 70,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,72; 75,52</t>
+          <t>61,5; 74,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,75; 68,11</t>
+          <t>58,22; 68,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,12; 69,2</t>
+          <t>59,34; 69,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,74; 69,68</t>
+          <t>60,53; 69,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,07; 71,17</t>
+          <t>59,87; 71,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,37; 70,43</t>
+          <t>60,47; 71,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,28; 68,43</t>
+          <t>55,98; 68,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,97; 68,33</t>
+          <t>55,83; 67,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,11; 69,66</t>
+          <t>58,49; 69,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,41; 67,33</t>
+          <t>55,6; 67,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,94; 68,2</t>
+          <t>59,68; 68,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,24; 68,7</t>
+          <t>60,74; 68,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>58,04; 66,12</t>
+          <t>57,6; 65,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,35; 71,98</t>
+          <t>64,29; 72,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,64; 69,17</t>
+          <t>61,82; 69,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,97; 63,65</t>
+          <t>55,54; 63,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,51; 67,28</t>
+          <t>59,17; 66,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,6; 67,92</t>
+          <t>60,38; 68,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,81; 54,85</t>
+          <t>47,09; 55,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63,07; 68,39</t>
+          <t>62,74; 68,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,26; 67,87</t>
+          <t>62,49; 67,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,6; 58,39</t>
+          <t>52,36; 57,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,41; 66,64</t>
+          <t>59,84; 66,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,28; 67,3</t>
+          <t>60,25; 67,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,44; 65,81</t>
+          <t>58,65; 65,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,69; 66,68</t>
+          <t>59,34; 66,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,24; 66,7</t>
+          <t>59,98; 66,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>58,01; 64,86</t>
+          <t>57,52; 64,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,55; 65,47</t>
+          <t>60,57; 65,42</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>61,24; 66,08</t>
+          <t>61,25; 66,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>59,25; 64,27</t>
+          <t>59,19; 63,97</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>63,83; 67,12</t>
+          <t>63,82; 67,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,36; 66,66</t>
+          <t>63,23; 66,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61,88; 65,35</t>
+          <t>61,8; 65,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>61,02; 64,11</t>
+          <t>61,03; 64,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,21; 66,5</t>
+          <t>63,18; 66,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>58,62; 62,02</t>
+          <t>58,84; 62,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62,81; 65,14</t>
+          <t>62,73; 65,19</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63,68; 66,19</t>
+          <t>63,83; 66,16</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,15</t>
+          <t>60,66; 63,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P73-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,47 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>62,62%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>62,62%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>60,16%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
           <t>64,1%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,01; 67,61</t>
+          <t>55,28; 67,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,75; 71,64</t>
+          <t>59,7; 71,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>51,94; 64,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,17; 64,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>55,94; 67,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>55,63; 64,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>56,53; 68,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,76; 64,6</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>59,86; 68,04</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
+          <t>59,99; 68,2</t>
         </is>
       </c>
     </row>
@@ -811,47 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>66,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>67,14%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
           <t>64,03%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,41; 70,1</t>
+          <t>61,38; 70,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,02; 71,28</t>
+          <t>62,77; 71,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,87; 68,49</t>
+          <t>59,67; 68,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>60,09; 68,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,84; 68,07</t>
+          <t>62,66; 71,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,59; 71,13</t>
+          <t>59,64; 67,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,65; 68,13</t>
+          <t>61,93; 68,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>63,96; 70,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,9; 68,21</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>63,84; 70,21</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>61,19; 67,05</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
+          <t>61,13; 67,29</t>
         </is>
       </c>
     </row>
@@ -951,47 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>61,62%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
           <t>63,28%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,04; 73,91</t>
+          <t>63,51; 73,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,03; 67,25</t>
+          <t>56,32; 67,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,33; 73,1</t>
+          <t>62,33; 72,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>56,96; 67,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,23; 67,45</t>
+          <t>55,96; 66,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,1; 67,03</t>
+          <t>53,33; 63,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,04; 64,03</t>
+          <t>61,56; 69,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>57,83; 65,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,54; 69,05</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>57,79; 65,42</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>59,69; 67,05</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,21</t>
+          <t>59,58; 66,87</t>
         </is>
       </c>
     </row>
@@ -1091,47 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,44%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>64,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,38%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>66,46%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
           <t>66,48%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,31; 70,86</t>
+          <t>61,19; 70,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,43; 68,98</t>
+          <t>60,97; 68,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,63; 73,37</t>
+          <t>63,77; 73,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>54,47; 64,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,52; 64,34</t>
+          <t>64,0; 71,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,25; 71,85</t>
+          <t>58,91; 69,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,09; 69,18</t>
+          <t>59,38; 66,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>63,84; 69,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,5; 66,07</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>63,34; 68,89</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>62,94; 70,26</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
+          <t>63,12; 70,09</t>
         </is>
       </c>
     </row>
@@ -1231,47 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>63,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63,55%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>64,51%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
           <t>65,18%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53,32; 67,21</t>
+          <t>53,42; 67,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,61; 71,05</t>
+          <t>57,53; 71,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,95; 67,01</t>
+          <t>54,39; 66,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>59,3; 72,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,3; 72,27</t>
+          <t>58,38; 70,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,97; 70,92</t>
+          <t>62,72; 75,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>61,5; 74,15</t>
+          <t>58,78; 67,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>59,42; 68,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,22; 68,17</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>59,34; 69,36</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>60,53; 69,94</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+          <t>60,76; 69,59</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>62,06%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,21%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>63,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,88%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>64,79%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
           <t>62,05%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,87; 71,51</t>
+          <t>59,02; 71,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>60,47; 71,09</t>
+          <t>59,57; 71,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55,98; 68,02</t>
+          <t>56,57; 68,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>55,94; 67,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,83; 67,03</t>
+          <t>57,77; 69,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,49; 69,73</t>
+          <t>55,99; 67,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,6; 67,36</t>
+          <t>59,46; 68,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>60,5; 68,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>59,68; 68,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>60,74; 68,85</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>57,6; 65,9</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
+          <t>57,91; 65,97</t>
         </is>
       </c>
     </row>
@@ -1511,47 +1307,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>65,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>65,75%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>65,1%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
           <t>55,33%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,29; 72,31</t>
+          <t>64,25; 71,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,82; 69,71</t>
+          <t>62,17; 69,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,54; 63,57</t>
+          <t>56,0; 63,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>59,38; 66,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,17; 66,78</t>
+          <t>60,32; 68,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,38; 68,09</t>
+          <t>47,22; 55,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,09; 55,22</t>
+          <t>63,11; 68,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>62,5; 67,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,74; 68,39</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>62,49; 67,63</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>52,36; 57,95</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+          <t>52,33; 57,89</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1417,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>63,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>63,69%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
           <t>61,71%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,84; 66,63</t>
+          <t>60,03; 66,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,25; 67,19</t>
+          <t>59,88; 67,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,65; 65,39</t>
+          <t>58,48; 65,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>59,12; 65,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,34; 66,37</t>
+          <t>60,17; 66,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>59,98; 66,77</t>
+          <t>57,73; 64,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>57,52; 64,84</t>
+          <t>60,78; 65,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>61,08; 65,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,57; 65,42</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>61,25; 66,25</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>59,19; 63,97</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+          <t>59,1; 63,94</t>
         </is>
       </c>
     </row>
@@ -1791,47 +1527,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
           <t>61,93%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>63,82; 67,1</t>
+          <t>63,7; 67,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,23; 66,56</t>
+          <t>63,38; 66,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61,8; 65,11</t>
+          <t>61,95; 65,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>61,01; 64,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>61,03; 64,22</t>
+          <t>63,06; 66,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,18; 66,4</t>
+          <t>58,8; 62,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>58,84; 62,26</t>
+          <t>62,75; 65,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,74; 66,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62,73; 65,19</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>63,83; 66,16</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>60,66; 63,01</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+          <t>60,7; 63,01</t>
         </is>
       </c>
     </row>
@@ -1912,17 +1618,17 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P73-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P73-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,36; 71,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,39; 75,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,3; 71,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>66,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,46%</t>
+          <t>65,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,97; 68,84</t>
+          <t>60,03; 70,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,0; 71,36</t>
+          <t>61,37; 71,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,84; 69,11</t>
+          <t>62,53; 69,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P73-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,28; 67,65</t>
+          <t>56,05; 67,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,36; 71,64</t>
+          <t>59,55; 71,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,7; 71,49</t>
+          <t>59,6; 71,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,94; 64,18</t>
+          <t>51,27; 64,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,39; 75,37</t>
+          <t>62,75; 74,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,94; 67,82</t>
+          <t>56,76; 68,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,63; 64,12</t>
+          <t>55,61; 64,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,3; 71,46</t>
+          <t>63,08; 71,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,99; 68,2</t>
+          <t>60,08; 68,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,38; 70,01</t>
+          <t>61,52; 69,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,77; 71,25</t>
+          <t>62,62; 71,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,67; 68,49</t>
+          <t>60,26; 68,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,09; 68,44</t>
+          <t>60,13; 68,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,66; 71,07</t>
+          <t>62,54; 71,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,64; 67,9</t>
+          <t>59,44; 68,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>61,93; 68,15</t>
+          <t>61,87; 68,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,96; 70,04</t>
+          <t>64,03; 70,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,13; 67,29</t>
+          <t>60,81; 67,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,51; 73,94</t>
+          <t>63,3; 73,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,32; 67,32</t>
+          <t>55,73; 67,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,33; 72,87</t>
+          <t>63,26; 73,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,96; 67,16</t>
+          <t>56,28; 66,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,96; 66,62</t>
+          <t>55,94; 66,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,33; 63,83</t>
+          <t>53,17; 63,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,56; 69,07</t>
+          <t>61,42; 68,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,83; 65,29</t>
+          <t>57,87; 65,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,58; 66,87</t>
+          <t>59,45; 67,02</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,19; 70,68</t>
+          <t>61,07; 71,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,03; 70,3</t>
+          <t>60,52; 70,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,77; 73,54</t>
+          <t>63,48; 73,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,47; 64,41</t>
+          <t>54,47; 64,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,37; 71,0</t>
+          <t>61,4; 70,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,91; 69,36</t>
+          <t>59,28; 69,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,38; 66,29</t>
+          <t>59,33; 66,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,53; 69,32</t>
+          <t>62,19; 69,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,12; 70,09</t>
+          <t>63,08; 70,06</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53,42; 67,88</t>
+          <t>53,42; 67,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,53; 71,09</t>
+          <t>57,56; 71,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,39; 66,87</t>
+          <t>54,56; 67,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,3; 72,67</t>
+          <t>59,25; 72,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,38; 70,91</t>
+          <t>58,23; 70,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,72; 75,21</t>
+          <t>63,17; 75,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>58,78; 67,99</t>
+          <t>58,87; 68,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,42; 68,91</t>
+          <t>59,4; 68,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,76; 69,59</t>
+          <t>60,62; 69,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,02; 71,02</t>
+          <t>60,19; 71,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,57; 71,68</t>
+          <t>59,28; 71,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,57; 68,09</t>
+          <t>55,7; 68,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,94; 67,82</t>
+          <t>56,65; 67,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,77; 69,38</t>
+          <t>58,28; 69,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,99; 67,25</t>
+          <t>56,07; 67,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>59,46; 68,33</t>
+          <t>59,43; 67,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,5; 68,55</t>
+          <t>60,23; 68,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57,91; 65,97</t>
+          <t>57,67; 66,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,25; 71,96</t>
+          <t>64,53; 72,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,17; 69,41</t>
+          <t>61,89; 69,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,0; 63,45</t>
+          <t>55,83; 63,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59,38; 66,8</t>
+          <t>59,6; 67,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,32; 68,08</t>
+          <t>60,92; 68,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,22; 55,08</t>
+          <t>47,36; 55,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>63,11; 68,61</t>
+          <t>62,85; 68,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,5; 67,64</t>
+          <t>62,46; 68,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,33; 57,89</t>
+          <t>52,62; 58,07</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>60,03; 66,89</t>
+          <t>59,93; 67,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59,88; 67,11</t>
+          <t>60,29; 67,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,48; 65,53</t>
+          <t>57,96; 65,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>59,12; 65,9</t>
+          <t>59,29; 66,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>60,17; 66,58</t>
+          <t>59,79; 66,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>57,73; 64,81</t>
+          <t>57,55; 64,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>60,78; 65,81</t>
+          <t>60,85; 65,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,08; 65,63</t>
+          <t>61,27; 66,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,1; 63,94</t>
+          <t>59,18; 63,98</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,71; 67,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,38; 66,75</t>
+          <t>63,3; 66,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,16</t>
+          <t>61,71; 65,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>60,89; 64,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>63,06; 66,49</t>
+          <t>63,29; 66,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>58,8; 62,05</t>
+          <t>58,7; 61,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,79; 65,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>63,74; 66,11</t>
+          <t>63,78; 66,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,01</t>
+          <t>60,71; 63,07</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que están casados o viven en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>169003</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>187480</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>192574</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>152177</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>188848</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>180800</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>321179</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>376328</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>373374</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>153028; 184384</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>170845; 204521</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>175069; 208797</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>133735; 168274</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>171003; 203032</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>163862; 197419</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>296851; 344433</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>352826; 399580</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>349973; 396539</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>324524</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>340250</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>321482</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>324748</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>350852</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>332802</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>649273</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>691102</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>654284</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>303358; 344880</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>316541; 362201</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>301584; 343347</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>303013; 345842</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>327557; 372328</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>309830; 356521</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>616809; 681244</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>659033; 720549</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>621313; 684909</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>219049</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>200130</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>217324</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>208748</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>209706</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>197103</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>427797</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>409836</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>414427</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>201834; 233856</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>180596; 218303</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>201539; 233351</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>188771; 224361</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>190753; 227365</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>178803; 214965</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>401827; 450343</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>384901; 434325</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>389327; 438891</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>238250</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>243273</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>254088</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>220809</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>258006</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>249316</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>459059</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>501279</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>503405</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>219058; 255000</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>225227; 263657</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>234843; 272097</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>202331; 239058</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>238805; 275238</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>229596; 267556</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>433164; 487782</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>473302; 525606</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>477662; 530493</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>124036</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>136875</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>129539</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>137132</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>140809</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>150624</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>261168</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>277684</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>280163</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>108598; 136337</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>122389; 152944</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>115242; 143351</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>123038; 150494</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>126842; 154551</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>138091; 164253</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>241925; 279668</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>255671; 295858</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>260556; 299712</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>178080</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>179135</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>164406</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>172618</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>179805</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>168312</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>350698</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>358940</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>332718</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>163010; 193764</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>162430; 195182</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>146570; 179926</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>157573; 188769</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>163209; 195438</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>153138; 185658</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>326244; 372241</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>333682; 381963</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>309257; 356166</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>418753</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>435868</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>391364</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>404653</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>446737</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>353825</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>823406</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>882606</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>745189</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>396297; 444185</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>410177; 461110</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>365986; 415874</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>380356; 429150</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>422105; 472676</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>327415; 381218</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>787153; 855159</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>846749; 921866</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>708743; 782135</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>470763</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>496730</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>483574</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>493371</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>522847</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>506747</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>964134</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1019577</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>990321</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>445725; 498735</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>468468; 523685</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>451250; 508261</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>464512; 521276</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>492590; 550863</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>475452; 533781</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>929308; 1002128</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>980762; 1060053</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>949710; 1026761</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2142457</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2219741</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2154352</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2114257</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2297610</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2139529</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>4256715</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>4517351</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4293881</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2086954; 2196751</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2161804; 2275656</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2092814; 2210377</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2057600; 2170402</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2240852; 2357472</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2079736; 2195291</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4178497; 4333967</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>4436736; 4598680</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4209717; 4373419</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>